--- a/flows/GOVT_fund_flow_data.xlsx
+++ b/flows/GOVT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3033"/>
+  <dimension ref="A1:B3041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30765,6 +30765,86 @@
         <v>31.54942</v>
       </c>
     </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3034" t="n">
+        <v>6.77844</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3035" t="n">
+        <v>61.11396</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3036" t="n">
+        <v>-4.53356</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3037" t="n">
+        <v>2036.7</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3038" t="n">
+        <v>11.36865</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3039" t="n">
+        <v>40.99752</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3040" t="n">
+        <v>47.87685</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3041" t="n">
+        <v>20.53026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
